--- a/Gestion/20 Registro de trazabilidad.xlsx
+++ b/Gestion/20 Registro de trazabilidad.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Desktop/ISO 29110/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF14142A-240E-7140-B7FA-E487AD0597CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF538A80-36A4-844A-B1D9-AA65DAEE4FF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="15500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="27560" yWindow="500" windowWidth="20480" windowHeight="14860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Historial Versiones" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="57">
   <si>
     <t>Colocar Logotipo de la empresa</t>
   </si>
@@ -196,6 +196,9 @@
   </si>
   <si>
     <t>LibroTest.php</t>
+  </si>
+  <si>
+    <t>05/11/2021</t>
   </si>
 </sst>
 </file>
@@ -979,8 +982,8 @@
   </sheetPr>
   <dimension ref="A1:H1000"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E16" zoomScale="165" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1040,7 +1043,7 @@
         <v>5</v>
       </c>
       <c r="F4" s="6">
-        <v>42285</v>
+        <v>44509</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
@@ -1266,8 +1269,8 @@
       <c r="B24" s="16">
         <v>1</v>
       </c>
-      <c r="C24" s="17">
-        <v>44096</v>
+      <c r="C24" s="17" t="s">
+        <v>56</v>
       </c>
       <c r="D24" s="18" t="s">
         <v>26</v>
@@ -1277,7 +1280,7 @@
         <v>27</v>
       </c>
       <c r="G24" s="17">
-        <v>44097</v>
+        <v>44509</v>
       </c>
       <c r="H24" s="1"/>
     </row>
@@ -2335,7 +2338,7 @@
   </sheetPr>
   <dimension ref="A1:L997"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="137" workbookViewId="0">
+    <sheetView zoomScale="137" workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>

--- a/Gestion/20 Registro de trazabilidad.xlsx
+++ b/Gestion/20 Registro de trazabilidad.xlsx
@@ -8,16 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Desktop/ISO 29110/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF538A80-36A4-844A-B1D9-AA65DAEE4FF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{019F77A3-9D92-7144-BC2A-65C072CAB484}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="27560" yWindow="500" windowWidth="20480" windowHeight="14860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1760" yWindow="500" windowWidth="20480" windowHeight="14860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Historial Versiones" sheetId="1" r:id="rId1"/>
     <sheet name="Registro de Trazabilidad" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mglQ9HyUH54Y+wAEbOuyitAGwYu6Q=="/>
     </ext>
@@ -982,8 +990,8 @@
   </sheetPr>
   <dimension ref="A1:H1000"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E16" zoomScale="165" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="117" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1043,7 +1051,7 @@
         <v>5</v>
       </c>
       <c r="F4" s="6">
-        <v>44509</v>
+        <v>44533</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
@@ -2338,7 +2346,7 @@
   </sheetPr>
   <dimension ref="A1:L997"/>
   <sheetViews>
-    <sheetView zoomScale="137" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="137" workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
